--- a/biology/Botanique/Aloinopsis/Aloinopsis.xlsx
+++ b/biology/Botanique/Aloinopsis/Aloinopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aloinopsis Schwantes est un genre de plante dicotylédone de la famille des Aizoaceae, originaire d'Afrique australe.
 Le terme Aloinopsis signifie « ressemblant à une Aloe » en référence à l'aspect de minuscule aloès de certains membres du genre. 
@@ -512,7 +524,9 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aloinopsis Schwantes, in Z. Sukkulentenk. 2: 177 (1926)
 Type : Aloinopsis aloides (Haw.) Schwantes (Mesembryanthemum aloides Haw.) ; Lectotypus [Bullock, in Kew Bull. : 156 (1938)]
@@ -544,7 +558,9 @@
           <t>Caractères généraux [1],[2],[3],[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres du genre Aloinopsis sont des plantes vivaces miniatures, mimétiques, en touffe serrée ramifiée à la base, aux racines tubéreuses, d'aspect assez divers.
 Phyllotaxie : opposée-décussée ; entrenœuds courts, non visibles.
@@ -582,10 +598,12 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Typologie : chamaephyte ; xérophyte.
-Habitat : zones rocheuses[2].
+Habitat : zones rocheuses.
 Altitude : ?</t>
         </is>
       </c>
@@ -614,14 +632,16 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Afrique du Sud :Aire disjointe en deux parties :
-(1) Great Karoo et Little Karoo[2] :
+(1) Great Karoo et Little Karoo :
 Western Cape
 ouest de l'Eastern Cape
 sud du Northern Cape
-(2) Northern Cape[2]
+(2) Northern Cape
 nord-est sud du Northern Cape (Aloinopsis orpenii)</t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Mise en culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres du genre Aloinopsis sont de culture plutôt facile en situation très lumineuse[2]. Ils sont néanmoins facilement attaqués par les tétranyques et les cochenilles farineuses et leurs racines tubérisées sont assez sensibles à la pourriture[2],[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres du genre Aloinopsis sont de culture plutôt facile en situation très lumineuse. Ils sont néanmoins facilement attaqués par les tétranyques et les cochenilles farineuses et leurs racines tubérisées sont assez sensibles à la pourriture,.
 </t>
         </is>
       </c>
@@ -681,7 +703,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aloinopsis acuta L.Bolus
